--- a/FOR ASS 5 - Perceptron/TEST.xlsx
+++ b/FOR ASS 5 - Perceptron/TEST.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Written Grade</t>
+    <t>Age</t>
   </si>
   <si>
-    <t>Grade Point Equivalence</t>
+    <t>IQ Range</t>
+  </si>
+  <si>
+    <t>EQ Range</t>
   </si>
 </sst>
 </file>
@@ -45,26 +48,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8F9FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -72,26 +70,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFA2A9B1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFA2A9B1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFA2A9B1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFA2A9B1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -99,12 +82,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,80 +399,53 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>140</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>4</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>115</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="C4" s="1">
         <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
